--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS2.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS2.xlsx
@@ -19,7 +19,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="134">
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
   <si>
     <t>Signal_Value_51</t>
   </si>
@@ -189,6 +300,51 @@
     <t>Signal_Value_106</t>
   </si>
   <si>
+    <t>Signal_Value_107</t>
+  </si>
+  <si>
+    <t>Signal_Value_108</t>
+  </si>
+  <si>
+    <t>Signal_Value_109</t>
+  </si>
+  <si>
+    <t>Signal_Value_110</t>
+  </si>
+  <si>
+    <t>Signal_Value_111</t>
+  </si>
+  <si>
+    <t>Signal_Value_112</t>
+  </si>
+  <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -261,10 +417,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -625,15 +778,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE6"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:109">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -803,10 +956,166 @@
       <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:109">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -815,100 +1124,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003290106484109452</v>
+        <v>0.05149900662476347</v>
       </c>
       <c r="E2">
-        <v>0.01513008685070282</v>
+        <v>5.692121770712085E-05</v>
       </c>
       <c r="F2">
-        <v>0.001745045315701266</v>
+        <v>0.006586811299711152</v>
       </c>
       <c r="G2">
-        <v>0.0104475882962279</v>
+        <v>0.07422819680766933</v>
       </c>
       <c r="H2">
-        <v>0.01141332064656414</v>
+        <v>0.06848901750667231</v>
       </c>
       <c r="I2">
-        <v>0.001685187605094054</v>
+        <v>0.001958562435018157</v>
       </c>
       <c r="J2">
-        <v>0.003399099390567304</v>
+        <v>0.06291880003876693</v>
       </c>
       <c r="K2">
-        <v>0.02567258364601714</v>
+        <v>0.02730671474219876</v>
       </c>
       <c r="L2">
-        <v>1.209106439793924E-05</v>
+        <v>0.07625277147256022</v>
       </c>
       <c r="M2">
-        <v>0.03284450190717713</v>
+        <v>0.04102208962391516</v>
       </c>
       <c r="N2">
-        <v>0.009365704566729624</v>
+        <v>0.00305509866856817</v>
       </c>
       <c r="O2">
-        <v>0.05018618308098517</v>
+        <v>0.1868910076047196</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.02530866996438408</v>
       </c>
       <c r="Q2">
-        <v>0.05894808133484689</v>
+        <v>0.03977856390384171</v>
       </c>
       <c r="R2">
-        <v>0.002878827366397177</v>
+        <v>0.0001941401025480638</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.004938020202084135</v>
       </c>
       <c r="T2">
-        <v>0.001688016354901083</v>
+        <v>0.07035155998371849</v>
       </c>
       <c r="U2">
-        <v>0.06211519607793147</v>
+        <v>0.0003504480027849453</v>
       </c>
       <c r="V2">
-        <v>0.1644358399645213</v>
+        <v>0.002708980498764782</v>
       </c>
       <c r="W2">
-        <v>0.001327139618990701</v>
+        <v>0.00550953719061115</v>
       </c>
       <c r="X2">
-        <v>0.06148924686043327</v>
+        <v>0.0338232668420277</v>
       </c>
       <c r="Y2">
-        <v>0.02344493152091138</v>
+        <v>0.007596111048125741</v>
       </c>
       <c r="Z2">
-        <v>0.08832347075565945</v>
+        <v>0.0002602272355462029</v>
       </c>
       <c r="AA2">
-        <v>0.1594273774461727</v>
+        <v>0.02580937425531927</v>
       </c>
       <c r="AB2">
-        <v>0.01340869835118086</v>
+        <v>0.002400918584665894</v>
       </c>
       <c r="AC2">
-        <v>0.0143013561873727</v>
+        <v>0.05392255539461716</v>
       </c>
       <c r="AD2">
-        <v>0.005072247573239068</v>
+        <v>0.02553382400021334</v>
       </c>
       <c r="AE2">
-        <v>0.02369904546340627</v>
+        <v>0.00759035842997969</v>
       </c>
       <c r="AF2">
-        <v>0.08627835903199431</v>
+        <v>0.03291789592306472</v>
       </c>
       <c r="AG2">
-        <v>0.03603702375654932</v>
+        <v>0.002044473086185278</v>
       </c>
       <c r="AH2">
-        <v>0.004246390776532256</v>
+        <v>0.01498806555250974</v>
       </c>
       <c r="AI2">
-        <v>0.02768725270468593</v>
+        <v>0.04370801175673752</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -976,10 +1285,166 @@
       <c r="BE2">
         <v>0</v>
       </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:109">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1054,105 +1519,261 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0115188894028549</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0006929382600560991</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01190389149688803</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01062989257778183</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0002450563655043348</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.001055539798790107</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.01090609305666953</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.994043787589304E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.02382964002430251</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.006914356120876573</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.04263041175007093</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>8.076090244706667E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.04978977998536897</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0006362653691096415</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.001801623190997158</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0002902350475925826</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.06767054468369285</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.1662788693288277</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.008697246640793599</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.05953373390304007</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.03493576555120635</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.08946917308613291</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.1672513652314111</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.01972379848476269</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.010996781627704</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.004226932746912372</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.01425554548783534</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.07816862267753931</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0341137482168978</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.006491344766775926</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.02832364244004041</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.03693051773332975</v>
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0.03751720640644642</v>
+      </c>
+      <c r="BV3">
+        <v>0.02075601703150652</v>
+      </c>
+      <c r="BW3">
+        <v>0.001246472802355405</v>
+      </c>
+      <c r="BX3">
+        <v>0.03460124850414609</v>
+      </c>
+      <c r="BY3">
+        <v>0.03336835958662933</v>
+      </c>
+      <c r="BZ3">
+        <v>0.0005388143163403697</v>
+      </c>
+      <c r="CA3">
+        <v>0.07196997250507693</v>
+      </c>
+      <c r="CB3">
+        <v>0.1195793054043487</v>
+      </c>
+      <c r="CC3">
+        <v>0.04681100944994253</v>
+      </c>
+      <c r="CD3">
+        <v>0.0695217018727874</v>
+      </c>
+      <c r="CE3">
+        <v>0.001601244738586122</v>
+      </c>
+      <c r="CF3">
+        <v>0.1163188390533559</v>
+      </c>
+      <c r="CG3">
+        <v>0.08381787389932419</v>
+      </c>
+      <c r="CH3">
+        <v>0.009265844545637038</v>
+      </c>
+      <c r="CI3">
+        <v>0.002457933207908171</v>
+      </c>
+      <c r="CJ3">
+        <v>0.003108347803934163</v>
+      </c>
+      <c r="CK3">
+        <v>0.02402151460194361</v>
+      </c>
+      <c r="CL3">
+        <v>0.02114425146016626</v>
+      </c>
+      <c r="CM3">
+        <v>6.61731223461525E-05</v>
+      </c>
+      <c r="CN3">
+        <v>0.004810637888172979</v>
+      </c>
+      <c r="CO3">
+        <v>0.02414985472594561</v>
+      </c>
+      <c r="CP3">
+        <v>0.002686255910104952</v>
+      </c>
+      <c r="CQ3">
+        <v>2.344675802638775E-05</v>
+      </c>
+      <c r="CR3">
+        <v>0.0382322659683613</v>
+      </c>
+      <c r="CS3">
+        <v>0.002829390500989093</v>
+      </c>
+      <c r="CT3">
+        <v>0.1180992183063407</v>
+      </c>
+      <c r="CU3">
+        <v>0.004702419840155175</v>
+      </c>
+      <c r="CV3">
+        <v>0.003099144915066051</v>
+      </c>
+      <c r="CW3">
+        <v>0.03591907177059461</v>
+      </c>
+      <c r="CX3">
+        <v>0.01624387173938431</v>
+      </c>
+      <c r="CY3">
+        <v>0.02297126355319893</v>
+      </c>
+      <c r="CZ3">
+        <v>0.02852102781087881</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:109">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1224,108 +1845,264 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0050186466613282</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.009773079505737714</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0005544543239043373</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01173984685851213</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.005242459618122064</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0008455923236929709</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.005775228096328696</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001059173156945192</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01729909117813574</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01307860756878159</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0285743507379823</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002200948308713482</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.04665812880532821</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0003408072315609779</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001305279082338272</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0006213462022250928</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.05966244194927853</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.18008434727513</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.03466624391665466</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.04762297215535804</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.05042312250613477</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.08041475438184566</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.1899511087069044</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.04549025076884559</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00717394666919384</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.00430267822726221</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.009863415489524468</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.06696338530683871</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04289552565021137</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.006757853357855471</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.02364091397932527</v>
+        <v>0</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0.02325825634408915</v>
+      </c>
+      <c r="BV4">
+        <v>0.01923996098029626</v>
+      </c>
+      <c r="BW4">
+        <v>0.001645418949126511</v>
+      </c>
+      <c r="BX4">
+        <v>0.03759755830192673</v>
+      </c>
+      <c r="BY4">
+        <v>0.006300584631540237</v>
+      </c>
+      <c r="BZ4">
+        <v>0.02728113323795846</v>
+      </c>
+      <c r="CA4">
+        <v>0.1477070680032056</v>
+      </c>
+      <c r="CB4">
+        <v>0.01166919737923997</v>
+      </c>
+      <c r="CC4">
+        <v>0.04391928792279896</v>
+      </c>
+      <c r="CD4">
+        <v>0.001257476265646353</v>
+      </c>
+      <c r="CE4">
+        <v>0.05826790080435176</v>
+      </c>
+      <c r="CF4">
+        <v>0.2033145659746204</v>
+      </c>
+      <c r="CG4">
+        <v>0.001898096269787442</v>
+      </c>
+      <c r="CH4">
+        <v>0.002434717781550677</v>
+      </c>
+      <c r="CI4">
+        <v>0.002939404572449173</v>
+      </c>
+      <c r="CJ4">
+        <v>0.06475545268934951</v>
+      </c>
+      <c r="CK4">
+        <v>0.03211996383576161</v>
+      </c>
+      <c r="CL4">
+        <v>0.0002503395234944497</v>
+      </c>
+      <c r="CM4">
+        <v>0.01029200937744382</v>
+      </c>
+      <c r="CN4">
+        <v>0.003375810434638489</v>
+      </c>
+      <c r="CO4">
+        <v>0.04006416224043699</v>
+      </c>
+      <c r="CP4">
+        <v>0.002713804430593467</v>
+      </c>
+      <c r="CQ4">
+        <v>0.0236829697830663</v>
+      </c>
+      <c r="CR4">
+        <v>0.0402914867850799</v>
+      </c>
+      <c r="CS4">
+        <v>0.05870430890689808</v>
+      </c>
+      <c r="CT4">
+        <v>0.05784243684577773</v>
+      </c>
+      <c r="CU4">
+        <v>0.0001180286986870509</v>
+      </c>
+      <c r="CV4">
+        <v>0.02313644813369538</v>
+      </c>
+      <c r="CW4">
+        <v>0.02866500624102359</v>
+      </c>
+      <c r="CX4">
+        <v>0.0007344981919935922</v>
+      </c>
+      <c r="CY4">
+        <v>0.02383187735179966</v>
+      </c>
+      <c r="CZ4">
+        <v>0.0006907691116729399</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:109">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1394,100 +2171,100 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.003083577312211284</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.01605168602134785</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001019249229224836</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01797165002266505</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.004294885805955948</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01314362481628644</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002290528817121708</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.069759090934661E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002112247090173004</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01006288667093172</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.02132796494672029</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0115157746574981</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.01491163791770578</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0310290503442858</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.008066458874914004</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>7.14904823157721E-06</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001107122007411024</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.05857866262955948</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.1689933719930462</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.03762874662295501</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.02635368876271549</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0649178082165464</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.09156547276793335</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.172716872535923</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.04898012040029492</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.00576536404841256</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.003733136131418856</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.003013942550206557</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.02865638706643989</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.05041428700064557</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.03279382798226281</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.04887852992471598</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -1495,10 +2272,166 @@
       <c r="BE5">
         <v>0</v>
       </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0.02228458865572324</v>
+      </c>
+      <c r="CA5">
+        <v>0.04471647672614944</v>
+      </c>
+      <c r="CB5">
+        <v>0.02592620029671692</v>
+      </c>
+      <c r="CC5">
+        <v>0.1063931333167066</v>
+      </c>
+      <c r="CD5">
+        <v>0.01986651502025031</v>
+      </c>
+      <c r="CE5">
+        <v>0.03056901900524151</v>
+      </c>
+      <c r="CF5">
+        <v>0.06369204229430031</v>
+      </c>
+      <c r="CG5">
+        <v>0.0878227263098892</v>
+      </c>
+      <c r="CH5">
+        <v>0.007160730446785375</v>
+      </c>
+      <c r="CI5">
+        <v>0.04862960610677416</v>
+      </c>
+      <c r="CJ5">
+        <v>0.06679689245801021</v>
+      </c>
+      <c r="CK5">
+        <v>0.1168625993442734</v>
+      </c>
+      <c r="CL5">
+        <v>0.0641141498201023</v>
+      </c>
+      <c r="CM5">
+        <v>0.001967927458340376</v>
+      </c>
+      <c r="CN5">
+        <v>0.0199672768658917</v>
+      </c>
+      <c r="CO5">
+        <v>0.006960432933626465</v>
+      </c>
+      <c r="CP5">
+        <v>0.01273195696287812</v>
+      </c>
+      <c r="CQ5">
+        <v>0.02840846338381728</v>
+      </c>
+      <c r="CR5">
+        <v>0.01815648311607017</v>
+      </c>
+      <c r="CS5">
+        <v>0.007543316110709055</v>
+      </c>
+      <c r="CT5">
+        <v>0.03768512943599377</v>
+      </c>
+      <c r="CU5">
+        <v>0.003955088899249583</v>
+      </c>
+      <c r="CV5">
+        <v>0.02951271749917003</v>
+      </c>
+      <c r="CW5">
+        <v>0.01451444855238839</v>
+      </c>
+      <c r="CX5">
+        <v>0.003956717163047688</v>
+      </c>
+      <c r="CY5">
+        <v>0.02565803250777722</v>
+      </c>
+      <c r="CZ5">
+        <v>0.03227746180089136</v>
+      </c>
+      <c r="DA5">
+        <v>0.004439356901075712</v>
+      </c>
+      <c r="DB5">
+        <v>0.01190984631933912</v>
+      </c>
+      <c r="DC5">
+        <v>0.00587125954981738</v>
+      </c>
+      <c r="DD5">
+        <v>0.001657429756578524</v>
+      </c>
+      <c r="DE5">
+        <v>0.02799197498241488</v>
+      </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:109">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1558,100 +2491,100 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001805164387761517</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.00555772959185923</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.00193539535308883</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01490528822574549</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.02330084061595414</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>7.697396793703304E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0006750315865602267</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.002823437811758697</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01493830058337775</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.004166465741845564</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.007480665754544786</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.02079430246677754</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0007346546202525584</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.06027483105817751</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0144479363580741</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.004034355672341544</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.01881326576289647</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.1029575858204906</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.1127154393418937</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01970240119934591</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.02008462887170783</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.05062985233291935</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.102544659383149</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.165564929193496</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.01167289246143221</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>9.92308609798829E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0002712587274053015</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.002996313397427758</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.03759026744968479</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.05445930353301789</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.04573597817843859</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.07621061968965832</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -1667,6 +2600,162 @@
       </c>
       <c r="BE6">
         <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0.0304602864856924</v>
+      </c>
+      <c r="CA6">
+        <v>0.03031318110544802</v>
+      </c>
+      <c r="CB6">
+        <v>0.02768081305033386</v>
+      </c>
+      <c r="CC6">
+        <v>0.04457196375725421</v>
+      </c>
+      <c r="CD6">
+        <v>0.0370563772436712</v>
+      </c>
+      <c r="CE6">
+        <v>0.01784266102852695</v>
+      </c>
+      <c r="CF6">
+        <v>0.0585927748004476</v>
+      </c>
+      <c r="CG6">
+        <v>0.03464444727705616</v>
+      </c>
+      <c r="CH6">
+        <v>0.02872310441168549</v>
+      </c>
+      <c r="CI6">
+        <v>0.004595112769152463</v>
+      </c>
+      <c r="CJ6">
+        <v>0.03358191351956959</v>
+      </c>
+      <c r="CK6">
+        <v>0.1993725596811225</v>
+      </c>
+      <c r="CL6">
+        <v>0.01290584259094194</v>
+      </c>
+      <c r="CM6">
+        <v>0.002914848793367138</v>
+      </c>
+      <c r="CN6">
+        <v>0.000132864414863897</v>
+      </c>
+      <c r="CO6">
+        <v>0.02229385440490425</v>
+      </c>
+      <c r="CP6">
+        <v>0.09227006002062647</v>
+      </c>
+      <c r="CQ6">
+        <v>0.001239990376634012</v>
+      </c>
+      <c r="CR6">
+        <v>3.523020912046428E-05</v>
+      </c>
+      <c r="CS6">
+        <v>0.01227761766263821</v>
+      </c>
+      <c r="CT6">
+        <v>0.09411220545200372</v>
+      </c>
+      <c r="CU6">
+        <v>0.02987399162544725</v>
+      </c>
+      <c r="CV6">
+        <v>0.005288081460096612</v>
+      </c>
+      <c r="CW6">
+        <v>0.01675317263372143</v>
+      </c>
+      <c r="CX6">
+        <v>3.653943958723683E-05</v>
+      </c>
+      <c r="CY6">
+        <v>0.07712911553356472</v>
+      </c>
+      <c r="CZ6">
+        <v>0.03137611215120328</v>
+      </c>
+      <c r="DA6">
+        <v>0.002702791556780478</v>
+      </c>
+      <c r="DB6">
+        <v>0.02451296442223026</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0.008307383699713747</v>
+      </c>
+      <c r="DE6">
+        <v>0.01840213842259453</v>
       </c>
     </row>
   </sheetData>
@@ -1676,15 +2765,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE6"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:109">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1854,10 +2943,166 @@
       <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:109">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1866,858 +3111,1638 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003290106484109452</v>
+        <v>0.05149900662476347</v>
       </c>
       <c r="E2">
-        <v>0.01842019333481227</v>
+        <v>0.05155592784247059</v>
       </c>
       <c r="F2">
-        <v>0.02016523865051353</v>
+        <v>0.05814273914218174</v>
       </c>
       <c r="G2">
-        <v>0.03061282694674143</v>
+        <v>0.1323709359498511</v>
       </c>
       <c r="H2">
-        <v>0.04202614759330557</v>
+        <v>0.2008599534565234</v>
       </c>
       <c r="I2">
-        <v>0.04371133519839963</v>
+        <v>0.2028185158915415</v>
       </c>
       <c r="J2">
-        <v>0.04711043458896693</v>
+        <v>0.2657373159303085</v>
       </c>
       <c r="K2">
-        <v>0.07278301823498406</v>
+        <v>0.2930440306725072</v>
       </c>
       <c r="L2">
-        <v>0.072795109299382</v>
+        <v>0.3692968021450674</v>
       </c>
       <c r="M2">
-        <v>0.1056396112065591</v>
+        <v>0.4103188917689826</v>
       </c>
       <c r="N2">
-        <v>0.1150053157732887</v>
+        <v>0.4133739904375508</v>
       </c>
       <c r="O2">
-        <v>0.1651914988542739</v>
+        <v>0.6002649980422704</v>
       </c>
       <c r="P2">
-        <v>0.1651914988542739</v>
+        <v>0.6255736680066545</v>
       </c>
       <c r="Q2">
-        <v>0.2241395801891208</v>
+        <v>0.6653522319104962</v>
       </c>
       <c r="R2">
-        <v>0.227018407555518</v>
+        <v>0.6655463720130442</v>
       </c>
       <c r="S2">
-        <v>0.227018407555518</v>
+        <v>0.6704843922151283</v>
       </c>
       <c r="T2">
-        <v>0.2287064239104191</v>
+        <v>0.7408359521988468</v>
       </c>
       <c r="U2">
-        <v>0.2908216199883505</v>
+        <v>0.7411864002016317</v>
       </c>
       <c r="V2">
-        <v>0.4552574599528718</v>
+        <v>0.7438953807003965</v>
       </c>
       <c r="W2">
-        <v>0.4565845995718625</v>
+        <v>0.7494049178910077</v>
       </c>
       <c r="X2">
-        <v>0.5180738464322958</v>
+        <v>0.7832281847330355</v>
       </c>
       <c r="Y2">
-        <v>0.5415187779532072</v>
+        <v>0.7908242957811612</v>
       </c>
       <c r="Z2">
-        <v>0.6298422487088667</v>
+        <v>0.7910845230167074</v>
       </c>
       <c r="AA2">
-        <v>0.7892696261550394</v>
+        <v>0.8168938972720267</v>
       </c>
       <c r="AB2">
-        <v>0.8026783245062202</v>
+        <v>0.8192948158566925</v>
       </c>
       <c r="AC2">
-        <v>0.8169796806935929</v>
+        <v>0.8732173712513096</v>
       </c>
       <c r="AD2">
-        <v>0.822051928266832</v>
+        <v>0.8987511952515229</v>
       </c>
       <c r="AE2">
-        <v>0.8457509737302383</v>
+        <v>0.9063415536815026</v>
       </c>
       <c r="AF2">
-        <v>0.9320293327622327</v>
+        <v>0.9392594496045673</v>
       </c>
       <c r="AG2">
-        <v>0.9680663565187819</v>
+        <v>0.9413039226907526</v>
       </c>
       <c r="AH2">
-        <v>0.9723127472953141</v>
+        <v>0.9562919882432623</v>
       </c>
       <c r="AI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:109">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0.03751720640644642</v>
+      </c>
+      <c r="BV3">
+        <v>0.05827322343795295</v>
+      </c>
+      <c r="BW3">
+        <v>0.05951969624030835</v>
+      </c>
+      <c r="BX3">
+        <v>0.09412094474445444</v>
+      </c>
+      <c r="BY3">
+        <v>0.1274893043310838</v>
+      </c>
+      <c r="BZ3">
+        <v>0.1280281186474241</v>
+      </c>
+      <c r="CA3">
+        <v>0.1999980911525011</v>
+      </c>
+      <c r="CB3">
+        <v>0.3195773965568498</v>
+      </c>
+      <c r="CC3">
+        <v>0.3663884060067923</v>
+      </c>
+      <c r="CD3">
+        <v>0.4359101078795797</v>
+      </c>
+      <c r="CE3">
+        <v>0.4375113526181659</v>
+      </c>
+      <c r="CF3">
+        <v>0.5538301916715218</v>
+      </c>
+      <c r="CG3">
+        <v>0.637648065570846</v>
+      </c>
+      <c r="CH3">
+        <v>0.646913910116483</v>
+      </c>
+      <c r="CI3">
+        <v>0.6493718433243912</v>
+      </c>
+      <c r="CJ3">
+        <v>0.6524801911283254</v>
+      </c>
+      <c r="CK3">
+        <v>0.676501705730269</v>
+      </c>
+      <c r="CL3">
+        <v>0.6976459571904353</v>
+      </c>
+      <c r="CM3">
+        <v>0.6977121303127815</v>
+      </c>
+      <c r="CN3">
+        <v>0.7025227682009544</v>
+      </c>
+      <c r="CO3">
+        <v>0.7266726229269</v>
+      </c>
+      <c r="CP3">
+        <v>0.729358878837005</v>
+      </c>
+      <c r="CQ3">
+        <v>0.7293823255950314</v>
+      </c>
+      <c r="CR3">
+        <v>0.7676145915633926</v>
+      </c>
+      <c r="CS3">
+        <v>0.7704439820643817</v>
+      </c>
+      <c r="CT3">
+        <v>0.8885432003707223</v>
+      </c>
+      <c r="CU3">
+        <v>0.8932456202108775</v>
+      </c>
+      <c r="CV3">
+        <v>0.8963447651259435</v>
+      </c>
+      <c r="CW3">
+        <v>0.9322638368965381</v>
+      </c>
+      <c r="CX3">
+        <v>0.9485077086359225</v>
+      </c>
+      <c r="CY3">
+        <v>0.9714789721891214</v>
+      </c>
+      <c r="CZ3">
         <v>1</v>
       </c>
-      <c r="AJ2">
+      <c r="DA3">
         <v>1</v>
       </c>
-      <c r="AK2">
+      <c r="DB3">
         <v>1</v>
       </c>
-      <c r="AL2">
+      <c r="DC3">
         <v>1</v>
       </c>
-      <c r="AM2">
+      <c r="DD3">
         <v>1</v>
       </c>
-      <c r="AN2">
+      <c r="DE3">
         <v>1</v>
       </c>
-      <c r="AO2">
+    </row>
+    <row r="4" spans="1:109">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0.02325825634408915</v>
+      </c>
+      <c r="BV4">
+        <v>0.04249821732438541</v>
+      </c>
+      <c r="BW4">
+        <v>0.04414363627351192</v>
+      </c>
+      <c r="BX4">
+        <v>0.08174119457543866</v>
+      </c>
+      <c r="BY4">
+        <v>0.08804177920697889</v>
+      </c>
+      <c r="BZ4">
+        <v>0.1153229124449374</v>
+      </c>
+      <c r="CA4">
+        <v>0.263029980448143</v>
+      </c>
+      <c r="CB4">
+        <v>0.274699177827383</v>
+      </c>
+      <c r="CC4">
+        <v>0.3186184657501819</v>
+      </c>
+      <c r="CD4">
+        <v>0.3198759420158283</v>
+      </c>
+      <c r="CE4">
+        <v>0.37814384282018</v>
+      </c>
+      <c r="CF4">
+        <v>0.5814584087948005</v>
+      </c>
+      <c r="CG4">
+        <v>0.5833565050645879</v>
+      </c>
+      <c r="CH4">
+        <v>0.5857912228461386</v>
+      </c>
+      <c r="CI4">
+        <v>0.5887306274185877</v>
+      </c>
+      <c r="CJ4">
+        <v>0.6534860801079372</v>
+      </c>
+      <c r="CK4">
+        <v>0.6856060439436988</v>
+      </c>
+      <c r="CL4">
+        <v>0.6858563834671932</v>
+      </c>
+      <c r="CM4">
+        <v>0.696148392844637</v>
+      </c>
+      <c r="CN4">
+        <v>0.6995242032792756</v>
+      </c>
+      <c r="CO4">
+        <v>0.7395883655197125</v>
+      </c>
+      <c r="CP4">
+        <v>0.742302169950306</v>
+      </c>
+      <c r="CQ4">
+        <v>0.7659851397333722</v>
+      </c>
+      <c r="CR4">
+        <v>0.8062766265184521</v>
+      </c>
+      <c r="CS4">
+        <v>0.8649809354253502</v>
+      </c>
+      <c r="CT4">
+        <v>0.9228233722711279</v>
+      </c>
+      <c r="CU4">
+        <v>0.9229414009698149</v>
+      </c>
+      <c r="CV4">
+        <v>0.9460778491035103</v>
+      </c>
+      <c r="CW4">
+        <v>0.974742855344534</v>
+      </c>
+      <c r="CX4">
+        <v>0.9754773535365275</v>
+      </c>
+      <c r="CY4">
+        <v>0.9993092308883272</v>
+      </c>
+      <c r="CZ4">
         <v>1</v>
       </c>
-      <c r="AP2">
+      <c r="DA4">
         <v>1</v>
       </c>
-      <c r="AQ2">
+      <c r="DB4">
         <v>1</v>
       </c>
-      <c r="AR2">
+      <c r="DC4">
         <v>1</v>
       </c>
-      <c r="AS2">
+      <c r="DD4">
         <v>1</v>
       </c>
-      <c r="AT2">
+      <c r="DE4">
         <v>1</v>
       </c>
-      <c r="AU2">
+    </row>
+    <row r="5" spans="1:109">
+      <c r="A5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0.02228458865572324</v>
+      </c>
+      <c r="CA5">
+        <v>0.06700106538187268</v>
+      </c>
+      <c r="CB5">
+        <v>0.09292726567858961</v>
+      </c>
+      <c r="CC5">
+        <v>0.1993203989952962</v>
+      </c>
+      <c r="CD5">
+        <v>0.2191869140155465</v>
+      </c>
+      <c r="CE5">
+        <v>0.2497559330207881</v>
+      </c>
+      <c r="CF5">
+        <v>0.3134479753150884</v>
+      </c>
+      <c r="CG5">
+        <v>0.4012707016249776</v>
+      </c>
+      <c r="CH5">
+        <v>0.408431432071763</v>
+      </c>
+      <c r="CI5">
+        <v>0.4570610381785372</v>
+      </c>
+      <c r="CJ5">
+        <v>0.5238579306365474</v>
+      </c>
+      <c r="CK5">
+        <v>0.6407205299808209</v>
+      </c>
+      <c r="CL5">
+        <v>0.7048346798009232</v>
+      </c>
+      <c r="CM5">
+        <v>0.7068026072592636</v>
+      </c>
+      <c r="CN5">
+        <v>0.7267698841251553</v>
+      </c>
+      <c r="CO5">
+        <v>0.7337303170587818</v>
+      </c>
+      <c r="CP5">
+        <v>0.7464622740216599</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7748707374054772</v>
+      </c>
+      <c r="CR5">
+        <v>0.7930272205215474</v>
+      </c>
+      <c r="CS5">
+        <v>0.8005705366322564</v>
+      </c>
+      <c r="CT5">
+        <v>0.8382556660682502</v>
+      </c>
+      <c r="CU5">
+        <v>0.8422107549674998</v>
+      </c>
+      <c r="CV5">
+        <v>0.8717234724666698</v>
+      </c>
+      <c r="CW5">
+        <v>0.8862379210190582</v>
+      </c>
+      <c r="CX5">
+        <v>0.8901946381821059</v>
+      </c>
+      <c r="CY5">
+        <v>0.9158526706898831</v>
+      </c>
+      <c r="CZ5">
+        <v>0.9481301324907745</v>
+      </c>
+      <c r="DA5">
+        <v>0.9525694893918502</v>
+      </c>
+      <c r="DB5">
+        <v>0.9644793357111893</v>
+      </c>
+      <c r="DC5">
+        <v>0.9703505952610066</v>
+      </c>
+      <c r="DD5">
+        <v>0.9720080250175852</v>
+      </c>
+      <c r="DE5">
         <v>1</v>
       </c>
-      <c r="AV2">
+    </row>
+    <row r="6" spans="1:109">
+      <c r="A6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0.0304602864856924</v>
+      </c>
+      <c r="CA6">
+        <v>0.06077346759114042</v>
+      </c>
+      <c r="CB6">
+        <v>0.08845428064147427</v>
+      </c>
+      <c r="CC6">
+        <v>0.1330262443987285</v>
+      </c>
+      <c r="CD6">
+        <v>0.1700826216423997</v>
+      </c>
+      <c r="CE6">
+        <v>0.1879252826709266</v>
+      </c>
+      <c r="CF6">
+        <v>0.2465180574713742</v>
+      </c>
+      <c r="CG6">
+        <v>0.2811625047484304</v>
+      </c>
+      <c r="CH6">
+        <v>0.3098856091601159</v>
+      </c>
+      <c r="CI6">
+        <v>0.3144807219292684</v>
+      </c>
+      <c r="CJ6">
+        <v>0.348062635448838</v>
+      </c>
+      <c r="CK6">
+        <v>0.5474351951299604</v>
+      </c>
+      <c r="CL6">
+        <v>0.5603410377209024</v>
+      </c>
+      <c r="CM6">
+        <v>0.5632558865142695</v>
+      </c>
+      <c r="CN6">
+        <v>0.5633887509291334</v>
+      </c>
+      <c r="CO6">
+        <v>0.5856826053340377</v>
+      </c>
+      <c r="CP6">
+        <v>0.6779526653546641</v>
+      </c>
+      <c r="CQ6">
+        <v>0.6791926557312982</v>
+      </c>
+      <c r="CR6">
+        <v>0.6792278859404186</v>
+      </c>
+      <c r="CS6">
+        <v>0.6915055036030568</v>
+      </c>
+      <c r="CT6">
+        <v>0.7856177090550606</v>
+      </c>
+      <c r="CU6">
+        <v>0.8154917006805078</v>
+      </c>
+      <c r="CV6">
+        <v>0.8207797821406044</v>
+      </c>
+      <c r="CW6">
+        <v>0.8375329547743259</v>
+      </c>
+      <c r="CX6">
+        <v>0.8375694942139131</v>
+      </c>
+      <c r="CY6">
+        <v>0.9146986097474779</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9460747218986811</v>
+      </c>
+      <c r="DA6">
+        <v>0.9487775134554616</v>
+      </c>
+      <c r="DB6">
+        <v>0.9732904778776919</v>
+      </c>
+      <c r="DC6">
+        <v>0.9732904778776919</v>
+      </c>
+      <c r="DD6">
+        <v>0.9815978615774056</v>
+      </c>
+      <c r="DE6">
         <v>1</v>
-      </c>
-      <c r="AW2">
-        <v>1</v>
-      </c>
-      <c r="AX2">
-        <v>1</v>
-      </c>
-      <c r="AY2">
-        <v>1</v>
-      </c>
-      <c r="AZ2">
-        <v>1</v>
-      </c>
-      <c r="BA2">
-        <v>1</v>
-      </c>
-      <c r="BB2">
-        <v>1</v>
-      </c>
-      <c r="BC2">
-        <v>1</v>
-      </c>
-      <c r="BD2">
-        <v>1</v>
-      </c>
-      <c r="BE2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0.0115188894028549</v>
-      </c>
-      <c r="AA3">
-        <v>0.01221182766291099</v>
-      </c>
-      <c r="AB3">
-        <v>0.02411571915979903</v>
-      </c>
-      <c r="AC3">
-        <v>0.03474561173758086</v>
-      </c>
-      <c r="AD3">
-        <v>0.0349906681030852</v>
-      </c>
-      <c r="AE3">
-        <v>0.0360462079018753</v>
-      </c>
-      <c r="AF3">
-        <v>0.04695230095854484</v>
-      </c>
-      <c r="AG3">
-        <v>0.04695929500233242</v>
-      </c>
-      <c r="AH3">
-        <v>0.07078893502663493</v>
-      </c>
-      <c r="AI3">
-        <v>0.0777032911475115</v>
-      </c>
-      <c r="AJ3">
-        <v>0.1203337028975824</v>
-      </c>
-      <c r="AK3">
-        <v>0.1204144638000295</v>
-      </c>
-      <c r="AL3">
-        <v>0.1702042437853984</v>
-      </c>
-      <c r="AM3">
-        <v>0.1708405091545081</v>
-      </c>
-      <c r="AN3">
-        <v>0.1726421323455052</v>
-      </c>
-      <c r="AO3">
-        <v>0.1729323673930978</v>
-      </c>
-      <c r="AP3">
-        <v>0.2406029120767907</v>
-      </c>
-      <c r="AQ3">
-        <v>0.4068817814056184</v>
-      </c>
-      <c r="AR3">
-        <v>0.415579028046412</v>
-      </c>
-      <c r="AS3">
-        <v>0.4751127619494521</v>
-      </c>
-      <c r="AT3">
-        <v>0.5100485275006584</v>
-      </c>
-      <c r="AU3">
-        <v>0.5995177005867913</v>
-      </c>
-      <c r="AV3">
-        <v>0.7667690658182024</v>
-      </c>
-      <c r="AW3">
-        <v>0.7864928643029651</v>
-      </c>
-      <c r="AX3">
-        <v>0.7974896459306691</v>
-      </c>
-      <c r="AY3">
-        <v>0.8017165786775814</v>
-      </c>
-      <c r="AZ3">
-        <v>0.8159721241654168</v>
-      </c>
-      <c r="BA3">
-        <v>0.8941407468429561</v>
-      </c>
-      <c r="BB3">
-        <v>0.9282544950598539</v>
-      </c>
-      <c r="BC3">
-        <v>0.9347458398266298</v>
-      </c>
-      <c r="BD3">
-        <v>0.9630694822666702</v>
-      </c>
-      <c r="BE3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0.0050186466613282</v>
-      </c>
-      <c r="Z4">
-        <v>0.01479172616706591</v>
-      </c>
-      <c r="AA4">
-        <v>0.01534618049097025</v>
-      </c>
-      <c r="AB4">
-        <v>0.02708602734948238</v>
-      </c>
-      <c r="AC4">
-        <v>0.03232848696760444</v>
-      </c>
-      <c r="AD4">
-        <v>0.03317407929129741</v>
-      </c>
-      <c r="AE4">
-        <v>0.03317407929129741</v>
-      </c>
-      <c r="AF4">
-        <v>0.03894930738762611</v>
-      </c>
-      <c r="AG4">
-        <v>0.0400084805445713</v>
-      </c>
-      <c r="AH4">
-        <v>0.05730757172270703</v>
-      </c>
-      <c r="AI4">
-        <v>0.07038617929148863</v>
-      </c>
-      <c r="AJ4">
-        <v>0.09896053002947093</v>
-      </c>
-      <c r="AK4">
-        <v>0.1011614783381844</v>
-      </c>
-      <c r="AL4">
-        <v>0.1478196071435126</v>
-      </c>
-      <c r="AM4">
-        <v>0.1481604143750736</v>
-      </c>
-      <c r="AN4">
-        <v>0.1494656934574119</v>
-      </c>
-      <c r="AO4">
-        <v>0.150087039659637</v>
-      </c>
-      <c r="AP4">
-        <v>0.2097494816089155</v>
-      </c>
-      <c r="AQ4">
-        <v>0.3898338288840455</v>
-      </c>
-      <c r="AR4">
-        <v>0.4245000728007002</v>
-      </c>
-      <c r="AS4">
-        <v>0.4721230449560582</v>
-      </c>
-      <c r="AT4">
-        <v>0.522546167462193</v>
-      </c>
-      <c r="AU4">
-        <v>0.6029609218440386</v>
-      </c>
-      <c r="AV4">
-        <v>0.7929120305509429</v>
-      </c>
-      <c r="AW4">
-        <v>0.8384022813197886</v>
-      </c>
-      <c r="AX4">
-        <v>0.8455762279889824</v>
-      </c>
-      <c r="AY4">
-        <v>0.8498789062162445</v>
-      </c>
-      <c r="AZ4">
-        <v>0.859742321705769</v>
-      </c>
-      <c r="BA4">
-        <v>0.9267057070126077</v>
-      </c>
-      <c r="BB4">
-        <v>0.9696012326628191</v>
-      </c>
-      <c r="BC4">
-        <v>0.9763590860206746</v>
-      </c>
-      <c r="BD4">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="BE4">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.003083577312211284</v>
-      </c>
-      <c r="Y5">
-        <v>0.01913526333355913</v>
-      </c>
-      <c r="Z5">
-        <v>0.02015451256278397</v>
-      </c>
-      <c r="AA5">
-        <v>0.03812616258544903</v>
-      </c>
-      <c r="AB5">
-        <v>0.04242104839140497</v>
-      </c>
-      <c r="AC5">
-        <v>0.05556467320769141</v>
-      </c>
-      <c r="AD5">
-        <v>0.05785520202481313</v>
-      </c>
-      <c r="AE5">
-        <v>0.05786589961572247</v>
-      </c>
-      <c r="AF5">
-        <v>0.05997814670589548</v>
-      </c>
-      <c r="AG5">
-        <v>0.0700410333768272</v>
-      </c>
-      <c r="AH5">
-        <v>0.09136899832354749</v>
-      </c>
-      <c r="AI5">
-        <v>0.1028847729810456</v>
-      </c>
-      <c r="AJ5">
-        <v>0.1177964108987514</v>
-      </c>
-      <c r="AK5">
-        <v>0.1488254612430372</v>
-      </c>
-      <c r="AL5">
-        <v>0.1568919201179512</v>
-      </c>
-      <c r="AM5">
-        <v>0.1568990691661827</v>
-      </c>
-      <c r="AN5">
-        <v>0.1570097813669238</v>
-      </c>
-      <c r="AO5">
-        <v>0.2155884439964833</v>
-      </c>
-      <c r="AP5">
-        <v>0.3845818159895296</v>
-      </c>
-      <c r="AQ5">
-        <v>0.4222105626124846</v>
-      </c>
-      <c r="AR5">
-        <v>0.4485642513752001</v>
-      </c>
-      <c r="AS5">
-        <v>0.5134820595917464</v>
-      </c>
-      <c r="AT5">
-        <v>0.6050475323596798</v>
-      </c>
-      <c r="AU5">
-        <v>0.7777644048956027</v>
-      </c>
-      <c r="AV5">
-        <v>0.8267445252958976</v>
-      </c>
-      <c r="AW5">
-        <v>0.8325098893443101</v>
-      </c>
-      <c r="AX5">
-        <v>0.836243025475729</v>
-      </c>
-      <c r="AY5">
-        <v>0.8392569680259356</v>
-      </c>
-      <c r="AZ5">
-        <v>0.8679133550923755</v>
-      </c>
-      <c r="BA5">
-        <v>0.9183276420930211</v>
-      </c>
-      <c r="BB5">
-        <v>0.9511214700752839</v>
-      </c>
-      <c r="BC5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BD5">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BE5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.001805164387761517</v>
-      </c>
-      <c r="V6">
-        <v>0.007362893979620747</v>
-      </c>
-      <c r="W6">
-        <v>0.009298289332709576</v>
-      </c>
-      <c r="X6">
-        <v>0.02420357755845507</v>
-      </c>
-      <c r="Y6">
-        <v>0.04750441817440921</v>
-      </c>
-      <c r="Z6">
-        <v>0.04758139214234624</v>
-      </c>
-      <c r="AA6">
-        <v>0.04825642372890646</v>
-      </c>
-      <c r="AB6">
-        <v>0.05107986154066516</v>
-      </c>
-      <c r="AC6">
-        <v>0.06601816212404291</v>
-      </c>
-      <c r="AD6">
-        <v>0.07018462786588847</v>
-      </c>
-      <c r="AE6">
-        <v>0.07766529362043326</v>
-      </c>
-      <c r="AF6">
-        <v>0.0984595960872108</v>
-      </c>
-      <c r="AG6">
-        <v>0.09919425070746336</v>
-      </c>
-      <c r="AH6">
-        <v>0.1594690817656409</v>
-      </c>
-      <c r="AI6">
-        <v>0.173917018123715</v>
-      </c>
-      <c r="AJ6">
-        <v>0.1779513737960565</v>
-      </c>
-      <c r="AK6">
-        <v>0.196764639558953</v>
-      </c>
-      <c r="AL6">
-        <v>0.2997222253794435</v>
-      </c>
-      <c r="AM6">
-        <v>0.4124376647213372</v>
-      </c>
-      <c r="AN6">
-        <v>0.4321400659206831</v>
-      </c>
-      <c r="AO6">
-        <v>0.4522246947923909</v>
-      </c>
-      <c r="AP6">
-        <v>0.5028545471253103</v>
-      </c>
-      <c r="AQ6">
-        <v>0.6053992065084592</v>
-      </c>
-      <c r="AR6">
-        <v>0.7709641357019552</v>
-      </c>
-      <c r="AS6">
-        <v>0.7826370281633874</v>
-      </c>
-      <c r="AT6">
-        <v>0.7827362590243673</v>
-      </c>
-      <c r="AU6">
-        <v>0.7830075177517726</v>
-      </c>
-      <c r="AV6">
-        <v>0.7860038311492004</v>
-      </c>
-      <c r="AW6">
-        <v>0.8235940985988851</v>
-      </c>
-      <c r="AX6">
-        <v>0.878053402131903</v>
-      </c>
-      <c r="AY6">
-        <v>0.9237893803103415</v>
-      </c>
-      <c r="AZ6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BA6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BB6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BC6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BD6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="BE6">
-        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2735,302 +4760,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>0.01842019333481227</v>
+        <v>0.1323709359498511</v>
       </c>
       <c r="F2">
-        <v>0.5180738464322958</v>
+        <v>0.6002649980422704</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>0.0115188894028549</v>
+        <v>0.09412094474445444</v>
       </c>
       <c r="F3">
-        <v>0.5100485275006584</v>
+        <v>0.5538301916715218</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <v>0.01479172616706591</v>
+        <v>0.08174119457543866</v>
       </c>
       <c r="F4">
-        <v>0.522546167462193</v>
+        <v>0.5814584087948005</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E5">
-        <v>0.01913526333355913</v>
+        <v>0.09292726567858961</v>
       </c>
       <c r="F5">
-        <v>0.5134820595917464</v>
+        <v>0.5238579306365474</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E6">
-        <v>0.02420357755845507</v>
+        <v>0.08845428064147427</v>
       </c>
       <c r="F6">
-        <v>0.5028545471253103</v>
+        <v>0.5474351951299604</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3048,302 +5058,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>0.01842019333481227</v>
+        <v>0.1323709359498511</v>
       </c>
       <c r="F2">
-        <v>0.7892696261550394</v>
+        <v>0.7408359521988468</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E3">
-        <v>0.0115188894028549</v>
+        <v>0.09412094474445444</v>
       </c>
       <c r="F3">
-        <v>0.7667690658182024</v>
+        <v>0.7025227682009544</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>0.01479172616706591</v>
+        <v>0.08174119457543866</v>
       </c>
       <c r="F4">
-        <v>0.7929120305509429</v>
+        <v>0.7395883655197125</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>0.01913526333355913</v>
+        <v>0.09292726567858961</v>
       </c>
       <c r="F5">
-        <v>0.7777644048956027</v>
+        <v>0.7048346798009232</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>0.02420357755845507</v>
+        <v>0.08845428064147427</v>
       </c>
       <c r="F6">
-        <v>0.7709641357019552</v>
+        <v>0.7856177090550606</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3361,302 +5356,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>0.01842019333481227</v>
+        <v>0.1323709359498511</v>
       </c>
       <c r="F2">
-        <v>0.8026783245062202</v>
+        <v>0.8168938972720267</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.0115188894028549</v>
+        <v>0.09412094474445444</v>
       </c>
       <c r="F3">
-        <v>0.8017165786775814</v>
+        <v>0.8885432003707223</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>0.01479172616706591</v>
+        <v>0.08174119457543866</v>
       </c>
       <c r="F4">
-        <v>0.8384022813197886</v>
+        <v>0.8062766265184521</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>0.01913526333355913</v>
+        <v>0.09292726567858961</v>
       </c>
       <c r="F5">
-        <v>0.8267445252958976</v>
+        <v>0.8005705366322564</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.02420357755845507</v>
+        <v>0.08845428064147427</v>
       </c>
       <c r="F6">
-        <v>0.8235940985988851</v>
+        <v>0.8154917006805078</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3674,302 +5654,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01842019333481227</v>
+        <v>0.1323709359498511</v>
       </c>
       <c r="F2">
-        <v>0.9320293327622327</v>
+        <v>0.9063415536815026</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L2">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0.09412094474445444</v>
+      </c>
+      <c r="F3">
+        <v>0.9322638368965381</v>
+      </c>
+      <c r="G3">
         <v>25</v>
-      </c>
-      <c r="D3">
-        <v>53</v>
-      </c>
-      <c r="E3">
-        <v>0.0115188894028549</v>
-      </c>
-      <c r="F3">
-        <v>0.9282544950598539</v>
-      </c>
-      <c r="G3">
-        <v>28</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L3">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.01479172616706591</v>
+        <v>0.08174119457543866</v>
       </c>
       <c r="F4">
-        <v>0.9267057070126077</v>
+        <v>0.9228233722711279</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L4">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.01913526333355913</v>
+        <v>0.09292726567858961</v>
       </c>
       <c r="F5">
-        <v>0.9183276420930211</v>
+        <v>0.9158526706898831</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L5">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>102</v>
+      </c>
+      <c r="E6">
+        <v>0.08845428064147427</v>
+      </c>
+      <c r="F6">
+        <v>0.9146986097474779</v>
+      </c>
+      <c r="G6">
         <v>23</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>0.02420357755845507</v>
-      </c>
-      <c r="F6">
-        <v>0.9237893803103415</v>
-      </c>
-      <c r="G6">
-        <v>27</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="L6">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
